--- a/Evaluation/eval002/sub0784/Classifcation Report.xlsx
+++ b/Evaluation/eval002/sub0784/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9901960784313726</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9950738916256158</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -422,10 +422,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9900990099009901</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9950248756218906</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.995049504950495</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.995049504950495</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.995049504950495</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.995049504950495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9950980392156863</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.995049504950495</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9950493836237532</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9950980392156862</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.995049504950495</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9950493836237533</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
